--- a/data/trans_camb/P12_2_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 15,19</t>
+          <t>0,11; 15,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 11,51</t>
+          <t>-2,61; 11,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 24,6</t>
+          <t>9,39; 25,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 20,71</t>
+          <t>7,65; 20,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,27; 17,68</t>
+          <t>6,98; 17,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,72; 14,76</t>
+          <t>5,02; 14,76</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 92,43</t>
+          <t>0,58; 94,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 68,1</t>
+          <t>-11,68; 74,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,26; 144,7</t>
+          <t>37,68; 154,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,49; 126,07</t>
+          <t>29,78; 124,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,3; 100,64</t>
+          <t>30,36; 96,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,23; 84,18</t>
+          <t>20,87; 82,02</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,54; -8,97</t>
+          <t>-19,14; -9,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,69; -5,82</t>
+          <t>-16,09; -5,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,31; -7,42</t>
+          <t>-17,86; -8,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,47; -9,34</t>
+          <t>-20,49; -9,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,9; -8,95</t>
+          <t>-20,35; -8,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,8; -9,56</t>
+          <t>-20,08; -10,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,17; -10,72</t>
+          <t>-18,22; -11,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,33; -8,62</t>
+          <t>-16,09; -9,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,27; -10,26</t>
+          <t>-17,26; -10,08</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-70,77; -42,86</t>
+          <t>-71,65; -44,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,96; -28,03</t>
+          <t>-59,98; -27,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,55; -35,39</t>
+          <t>-67,14; -36,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,82; -31,09</t>
+          <t>-56,61; -31,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,62; -28,34</t>
+          <t>-54,97; -28,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,34; -31,48</t>
+          <t>-54,66; -33,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-59,52; -40,27</t>
+          <t>-59,88; -41,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,28; -32,76</t>
+          <t>-53,34; -34,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-56,31; -38,75</t>
+          <t>-55,96; -37,68</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 9,64</t>
+          <t>-2,11; 9,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 14,99</t>
+          <t>2,99; 14,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 10,27</t>
+          <t>-0,59; 9,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 5,49</t>
+          <t>-6,58; 5,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 10,13</t>
+          <t>-2,95; 9,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 1,62</t>
+          <t>-9,22; 1,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 5,75</t>
+          <t>-2,54; 5,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 10,67</t>
+          <t>2,0; 10,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 4,15</t>
+          <t>-3,31; 4,74</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 106,43</t>
+          <t>-17,06; 104,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,82; 171,25</t>
+          <t>20,73; 172,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 117,25</t>
+          <t>-4,82; 108,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,79; 31,75</t>
+          <t>-27,43; 32,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 56,09</t>
+          <t>-12,34; 57,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,16; 11,09</t>
+          <t>-38,12; 9,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 39,63</t>
+          <t>-14,02; 40,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,28; 75,19</t>
+          <t>10,13; 78,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 29,45</t>
+          <t>-17,86; 34,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,75; 13,38</t>
+          <t>3,78; 13,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 12,26</t>
+          <t>1,13; 12,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 11,5</t>
+          <t>-0,91; 11,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,37; 14,95</t>
+          <t>3,26; 15,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 7,43</t>
+          <t>-6,88; 6,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 0,07</t>
+          <t>-11,83; -0,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,62; 12,45</t>
+          <t>5,0; 12,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 7,87</t>
+          <t>-1,02; 7,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 4,0</t>
+          <t>-4,6; 4,13</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>20,02; 119,43</t>
+          <t>21,09; 120,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,64; 115,82</t>
+          <t>6,05; 110,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 101,39</t>
+          <t>-6,65; 104,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,99; 65,5</t>
+          <t>10,71; 67,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 32,53</t>
+          <t>-22,16; 27,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-40,73; 0,27</t>
+          <t>-39,68; -0,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,89; 67,9</t>
+          <t>22,02; 69,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 43,4</t>
+          <t>-4,43; 40,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 23,43</t>
+          <t>-20,75; 22,97</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-25,68; -9,79</t>
+          <t>-25,91; -9,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-20,66; -3,42</t>
+          <t>-21,28; -3,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 14,14</t>
+          <t>-4,22; 12,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-21,24; -1,72</t>
+          <t>-21,15; -2,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-26,95; -7,9</t>
+          <t>-25,92; -8,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 16,53</t>
+          <t>-2,53; 15,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-20,78; -7,69</t>
+          <t>-20,56; -7,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-20,53; -8,03</t>
+          <t>-20,75; -8,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 12,43</t>
+          <t>-0,03; 12,19</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-67,28; -31,55</t>
+          <t>-67,39; -31,97</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-53,88; -11,4</t>
+          <t>-54,51; -11,61</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 50,08</t>
+          <t>-11,74; 44,44</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,55; -4,35</t>
+          <t>-43,01; -4,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-53,43; -19,4</t>
+          <t>-52,88; -20,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 43,61</t>
+          <t>-5,63; 40,61</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-48,87; -21,46</t>
+          <t>-49,15; -21,84</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-48,98; -22,72</t>
+          <t>-49,32; -23,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 35,97</t>
+          <t>0,11; 34,53</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 8,04</t>
+          <t>-3,47; 8,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 5,41</t>
+          <t>-4,86; 5,77</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 9,82</t>
+          <t>-0,95; 9,89</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,15; -3,37</t>
+          <t>-17,57; -3,7</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,17; -2,27</t>
+          <t>-16,53; -2,07</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-17,55; -5,84</t>
+          <t>-18,11; -5,23</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 0,74</t>
+          <t>-8,91; 0,0</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 0,22</t>
+          <t>-9,38; 0,33</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 0,03</t>
+          <t>-7,83; 0,2</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 88,8</t>
+          <t>-25,29; 81,48</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 57,03</t>
+          <t>-32,77; 61,39</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 106,69</t>
+          <t>-7,48; 107,35</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-54,46; -13,29</t>
+          <t>-56,03; -14,39</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-53,18; -9,1</t>
+          <t>-52,25; -6,95</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-56,55; -25,0</t>
+          <t>-56,62; -21,93</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-37,64; 3,44</t>
+          <t>-39,14; 0,02</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-40,79; 1,97</t>
+          <t>-41,49; 1,7</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-35,77; 0,14</t>
+          <t>-35,2; 0,64</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>5,33; 13,98</t>
+          <t>6,05; 14,23</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,87; 10,35</t>
+          <t>2,2; 10,27</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,76; 14,84</t>
+          <t>6,04; 14,5</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 7,66</t>
+          <t>-1,78; 7,71</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 5,96</t>
+          <t>-3,32; 7,33</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 6,07</t>
+          <t>-10,27; 5,44</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,17; 9,88</t>
+          <t>3,35; 9,64</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,74; 7,06</t>
+          <t>0,9; 6,92</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 9,04</t>
+          <t>-0,21; 8,43</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>42,01; 157,11</t>
+          <t>49,51; 166,7</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>21,53; 118,79</t>
+          <t>17,27; 120,64</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>45,14; 172,75</t>
+          <t>48,77; 171,56</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 38,38</t>
+          <t>-7,49; 37,34</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 29,12</t>
+          <t>-13,2; 35,68</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-35,31; 28,18</t>
+          <t>-39,91; 25,54</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>17,73; 65,19</t>
+          <t>18,28; 62,57</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>3,77; 47,55</t>
+          <t>5,08; 45,95</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 57,47</t>
+          <t>-0,71; 53,82</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-16,18; -7,6</t>
+          <t>-16,63; -7,84</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-26,15; -18,58</t>
+          <t>-25,82; -18,1</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-23,49; -15,16</t>
+          <t>-23,35; -15,51</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-18,56; -9,4</t>
+          <t>-18,23; -8,77</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-28,11; -19,83</t>
+          <t>-28,35; -19,44</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-23,78; -14,7</t>
+          <t>-23,52; -15,09</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-16,19; -9,72</t>
+          <t>-16,31; -9,51</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-25,61; -20,0</t>
+          <t>-25,99; -20,3</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-22,7; -16,5</t>
+          <t>-22,56; -16,41</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-51,36; -27,8</t>
+          <t>-51,84; -27,75</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-81,38; -67,73</t>
+          <t>-81,25; -67,3</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-74,3; -56,87</t>
+          <t>-74,0; -57,13</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-46,44; -25,78</t>
+          <t>-45,92; -25,69</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-71,06; -55,77</t>
+          <t>-70,76; -55,44</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-58,94; -41,8</t>
+          <t>-58,91; -42,59</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-45,78; -30,45</t>
+          <t>-46,38; -30,08</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-73,14; -62,9</t>
+          <t>-73,68; -63,23</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-63,69; -51,27</t>
+          <t>-63,79; -50,83</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-4,08; -0,29</t>
+          <t>-4,13; -0,18</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-5,49; -2,1</t>
+          <t>-5,63; -1,83</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-4,64; -0,7</t>
+          <t>-4,75; -0,75</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-6,3; -1,83</t>
+          <t>-6,49; -2,07</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-9,5; -5,23</t>
+          <t>-9,42; -5,16</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -5,2</t>
+          <t>-9,81; -5,05</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-4,82; -1,8</t>
+          <t>-4,77; -1,79</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-7,12; -4,09</t>
+          <t>-7,17; -4,3</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-6,38; -3,39</t>
+          <t>-6,38; -3,3</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-20,14; -1,63</t>
+          <t>-20,04; -0,97</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-27,15; -11,27</t>
+          <t>-27,4; -9,79</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-23,01; -3,85</t>
+          <t>-23,02; -4,03</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-20,44; -6,43</t>
+          <t>-20,96; -7,44</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-31,14; -18,4</t>
+          <t>-30,64; -18,21</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-32,27; -18,09</t>
+          <t>-32,17; -17,77</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-18,88; -7,51</t>
+          <t>-18,71; -7,32</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-27,94; -17,02</t>
+          <t>-28,1; -17,86</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-25,18; -14,17</t>
+          <t>-25,12; -13,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_2_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 15,31</t>
+          <t>-0,2; 14,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 11,7</t>
+          <t>-1,86; 11,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,39; 25,38</t>
+          <t>10,36; 25,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 20,81</t>
+          <t>7,92; 20,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 17,17</t>
+          <t>6,78; 17,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,02; 14,76</t>
+          <t>5,04; 14,11</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 94,39</t>
+          <t>-2,08; 83,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 74,02</t>
+          <t>-8,12; 67,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,68; 154,79</t>
+          <t>42,33; 148,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,78; 124,96</t>
+          <t>31,3; 123,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,36; 96,44</t>
+          <t>29,86; 97,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,87; 82,02</t>
+          <t>22,2; 81,18</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,14; -9,15</t>
+          <t>-18,63; -8,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,09; -5,86</t>
+          <t>-15,85; -5,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,86; -8,09</t>
+          <t>-17,55; -7,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,49; -9,87</t>
+          <t>-20,82; -10,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,35; -8,99</t>
+          <t>-19,84; -9,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,08; -10,26</t>
+          <t>-19,67; -9,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,22; -11,08</t>
+          <t>-17,84; -10,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,09; -9,2</t>
+          <t>-16,39; -9,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,26; -10,08</t>
+          <t>-17,17; -10,08</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,65; -44,28</t>
+          <t>-70,82; -40,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,98; -27,59</t>
+          <t>-59,55; -27,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,14; -36,99</t>
+          <t>-67,0; -34,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,61; -31,86</t>
+          <t>-56,15; -32,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,97; -28,79</t>
+          <t>-54,61; -28,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,66; -33,24</t>
+          <t>-54,19; -33,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-59,88; -41,2</t>
+          <t>-59,16; -40,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,34; -34,19</t>
+          <t>-53,49; -32,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-55,96; -37,68</t>
+          <t>-55,88; -37,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 9,17</t>
+          <t>-1,47; 9,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,99; 14,61</t>
+          <t>3,64; 14,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 9,79</t>
+          <t>-0,35; 10,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 5,78</t>
+          <t>-7,52; 5,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 9,82</t>
+          <t>-2,55; 10,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 1,7</t>
+          <t>-9,45; 1,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 5,78</t>
+          <t>-2,7; 5,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 10,95</t>
+          <t>1,87; 10,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 4,74</t>
+          <t>-3,48; 4,45</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 104,16</t>
+          <t>-11,76; 105,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,73; 172,39</t>
+          <t>24,07; 165,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 108,28</t>
+          <t>-3,23; 124,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,43; 32,71</t>
+          <t>-30,85; 34,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 57,24</t>
+          <t>-11,71; 59,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,12; 9,11</t>
+          <t>-38,4; 6,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 40,02</t>
+          <t>-14,63; 40,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,13; 78,14</t>
+          <t>8,67; 76,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,86; 34,13</t>
+          <t>-18,54; 32,06</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,78; 13,38</t>
+          <t>3,77; 13,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 12,44</t>
+          <t>1,7; 12,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 11,54</t>
+          <t>-0,89; 11,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,26; 15,56</t>
+          <t>2,97; 14,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 6,59</t>
+          <t>-5,41; 7,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,83; -0,35</t>
+          <t>-12,19; -0,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,0; 12,49</t>
+          <t>5,11; 12,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 7,6</t>
+          <t>-0,54; 7,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 4,13</t>
+          <t>-4,73; 3,8</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>21,09; 120,75</t>
+          <t>21,6; 124,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,05; 110,24</t>
+          <t>10,36; 113,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 104,24</t>
+          <t>-6,55; 106,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,71; 67,29</t>
+          <t>9,91; 64,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,16; 27,76</t>
+          <t>-18,37; 31,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,68; -0,62</t>
+          <t>-40,03; -1,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>22,02; 69,05</t>
+          <t>23,4; 72,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 40,46</t>
+          <t>-2,46; 42,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 22,97</t>
+          <t>-21,21; 20,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-25,91; -9,55</t>
+          <t>-26,15; -9,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-21,28; -3,24</t>
+          <t>-19,51; -2,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 12,85</t>
+          <t>-4,05; 12,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-21,15; -2,01</t>
+          <t>-21,35; -1,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-25,92; -8,17</t>
+          <t>-25,72; -7,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 15,63</t>
+          <t>-1,03; 14,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-20,56; -7,4</t>
+          <t>-20,84; -8,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-20,75; -8,29</t>
+          <t>-20,54; -8,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 12,19</t>
+          <t>-0,08; 12,81</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-67,39; -31,97</t>
+          <t>-67,94; -31,51</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-54,51; -11,61</t>
+          <t>-52,79; -9,32</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 44,44</t>
+          <t>-10,88; 43,68</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-43,01; -4,78</t>
+          <t>-44,64; -4,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-52,88; -20,91</t>
+          <t>-52,06; -17,99</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 40,61</t>
+          <t>-2,34; 39,31</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-49,15; -21,84</t>
+          <t>-48,52; -21,71</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-49,32; -23,4</t>
+          <t>-48,03; -22,38</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>0,11; 34,53</t>
+          <t>-0,12; 36,17</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 8,28</t>
+          <t>-3,11; 8,32</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 5,77</t>
+          <t>-5,78; 5,74</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 9,89</t>
+          <t>-1,11; 9,73</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,57; -3,7</t>
+          <t>-16,98; -2,93</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-16,53; -2,07</t>
+          <t>-16,39; -2,08</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-18,11; -5,23</t>
+          <t>-18,1; -5,49</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 0,0</t>
+          <t>-8,5; 0,82</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 0,33</t>
+          <t>-9,51; 0,36</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 0,2</t>
+          <t>-8,06; 0,34</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 81,48</t>
+          <t>-21,78; 84,05</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-32,77; 61,39</t>
+          <t>-37,03; 57,85</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 107,35</t>
+          <t>-7,76; 99,28</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-56,03; -14,39</t>
+          <t>-54,01; -11,74</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-52,25; -6,95</t>
+          <t>-52,71; -9,43</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-56,62; -21,93</t>
+          <t>-56,28; -22,54</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-39,14; 0,02</t>
+          <t>-38,21; 4,44</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-41,49; 1,7</t>
+          <t>-42,07; 2,03</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-35,2; 0,64</t>
+          <t>-35,36; 2,31</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>6,05; 14,23</t>
+          <t>5,7; 14,25</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,2; 10,27</t>
+          <t>2,44; 10,32</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6,04; 14,5</t>
+          <t>5,83; 14,34</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 7,71</t>
+          <t>-1,71; 7,84</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 7,33</t>
+          <t>-3,52; 6,13</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 5,44</t>
+          <t>-10,28; 5,67</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,35; 9,64</t>
+          <t>3,29; 9,46</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,9; 6,92</t>
+          <t>0,41; 6,85</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 8,43</t>
+          <t>-0,37; 8,47</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>49,51; 166,7</t>
+          <t>45,62; 168,8</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>17,27; 120,64</t>
+          <t>20,58; 126,17</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>48,77; 171,56</t>
+          <t>47,45; 169,91</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 37,34</t>
+          <t>-6,93; 38,9</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 35,68</t>
+          <t>-14,18; 30,13</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-39,91; 25,54</t>
+          <t>-40,13; 26,24</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>18,28; 62,57</t>
+          <t>18,17; 61,39</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>5,08; 45,95</t>
+          <t>2,2; 44,47</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 53,82</t>
+          <t>-0,98; 53,95</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-16,63; -7,84</t>
+          <t>-16,15; -7,51</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-25,82; -18,1</t>
+          <t>-25,88; -18,3</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-23,35; -15,51</t>
+          <t>-23,72; -15,65</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-18,23; -8,77</t>
+          <t>-18,43; -9,14</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-28,35; -19,44</t>
+          <t>-28,44; -19,92</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-23,52; -15,09</t>
+          <t>-23,49; -14,6</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-16,31; -9,51</t>
+          <t>-15,88; -9,7</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-25,99; -20,3</t>
+          <t>-25,88; -19,74</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-22,56; -16,41</t>
+          <t>-22,49; -16,07</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-51,84; -27,75</t>
+          <t>-51,12; -27,34</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-81,25; -67,3</t>
+          <t>-81,35; -67,31</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-74,0; -57,13</t>
+          <t>-73,61; -56,97</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-45,92; -25,69</t>
+          <t>-46,01; -25,33</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-70,76; -55,44</t>
+          <t>-70,66; -56,41</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-58,91; -42,59</t>
+          <t>-58,81; -42,11</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-46,38; -30,08</t>
+          <t>-45,18; -30,28</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-73,68; -63,23</t>
+          <t>-73,21; -62,71</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-63,79; -50,83</t>
+          <t>-63,78; -50,61</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-4,13; -0,18</t>
+          <t>-4,21; -0,33</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-5,63; -1,83</t>
+          <t>-5,7; -1,92</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-4,75; -0,75</t>
+          <t>-4,86; -0,79</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-6,49; -2,07</t>
+          <t>-6,55; -2,07</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-9,42; -5,16</t>
+          <t>-9,56; -5,39</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -5,05</t>
+          <t>-10,08; -5,29</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -1,79</t>
+          <t>-4,65; -1,78</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-7,17; -4,3</t>
+          <t>-7,14; -4,22</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-6,38; -3,3</t>
+          <t>-6,32; -3,32</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-20,04; -0,97</t>
+          <t>-20,24; -1,62</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-27,4; -9,79</t>
+          <t>-28,22; -10,49</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-23,02; -4,03</t>
+          <t>-23,54; -4,34</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-20,96; -7,44</t>
+          <t>-21,27; -7,16</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-30,64; -18,21</t>
+          <t>-30,75; -18,73</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-32,17; -17,77</t>
+          <t>-33,14; -18,5</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-18,71; -7,32</t>
+          <t>-18,26; -7,35</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-28,1; -17,86</t>
+          <t>-27,85; -17,32</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-25,12; -13,84</t>
+          <t>-25,15; -14,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_2_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tuvo mucha energía alguna vez o algunas veces</t>
+          <t>Población que refirió mucha energía alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 14,28</t>
+          <t>0,55; 15,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 11,49</t>
+          <t>-2,65; 11,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,36; 25,64</t>
+          <t>9,16; 24,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,92; 20,57</t>
+          <t>7,16; 20,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 17,75</t>
+          <t>7,27; 17,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 14,11</t>
+          <t>4,72; 14,76</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 83,94</t>
+          <t>0,22; 92,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 67,76</t>
+          <t>-11,88; 68,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,33; 148,43</t>
+          <t>36,26; 144,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,3; 123,78</t>
+          <t>30,49; 126,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,86; 97,13</t>
+          <t>30,3; 100,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,2; 81,18</t>
+          <t>19,23; 84,18</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,63; -8,68</t>
+          <t>-18,54; -8,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,85; -5,65</t>
+          <t>-15,69; -5,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,55; -7,31</t>
+          <t>-17,31; -7,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,82; -10,23</t>
+          <t>-20,47; -9,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,84; -9,08</t>
+          <t>-19,9; -8,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,67; -9,97</t>
+          <t>-19,8; -9,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,84; -10,85</t>
+          <t>-18,17; -10,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,39; -9,06</t>
+          <t>-16,33; -8,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,17; -10,08</t>
+          <t>-17,27; -10,26</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-70,82; -40,72</t>
+          <t>-70,77; -42,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,55; -27,43</t>
+          <t>-59,96; -28,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,0; -34,7</t>
+          <t>-66,55; -35,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,15; -32,81</t>
+          <t>-56,82; -31,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,61; -28,69</t>
+          <t>-54,62; -28,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,19; -33,5</t>
+          <t>-54,34; -31,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-59,16; -40,35</t>
+          <t>-59,52; -40,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,49; -32,88</t>
+          <t>-53,28; -32,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-55,88; -37,66</t>
+          <t>-56,31; -38,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 9,47</t>
+          <t>-1,67; 9,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,64; 14,92</t>
+          <t>4,09; 14,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 10,24</t>
+          <t>0,19; 10,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 5,81</t>
+          <t>-6,76; 5,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 10,64</t>
+          <t>-2,56; 10,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 1,25</t>
+          <t>-9,46; 1,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 5,62</t>
+          <t>-2,45; 5,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 10,98</t>
+          <t>1,83; 10,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 4,45</t>
+          <t>-2,98; 4,15</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 105,61</t>
+          <t>-13,45; 106,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,07; 165,57</t>
+          <t>24,82; 171,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 124,04</t>
+          <t>-1,02; 117,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 34,15</t>
+          <t>-28,79; 31,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 59,37</t>
+          <t>-10,97; 56,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,4; 6,63</t>
+          <t>-38,16; 11,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 40,54</t>
+          <t>-13,44; 39,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,67; 76,65</t>
+          <t>9,28; 75,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 32,06</t>
+          <t>-16,12; 29,45</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,77; 13,52</t>
+          <t>3,75; 13,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,7; 12,71</t>
+          <t>0,99; 12,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 11,79</t>
+          <t>-1,24; 11,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,97; 14,85</t>
+          <t>3,37; 14,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 7,52</t>
+          <t>-5,78; 7,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,19; -0,51</t>
+          <t>-12,06; 0,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,11; 12,96</t>
+          <t>4,62; 12,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 7,59</t>
+          <t>-0,83; 7,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 3,8</t>
+          <t>-4,74; 4,0</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>21,6; 124,68</t>
+          <t>20,02; 119,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,36; 113,36</t>
+          <t>5,64; 115,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 106,97</t>
+          <t>-8,33; 101,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,91; 64,53</t>
+          <t>10,99; 65,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 31,93</t>
+          <t>-19,67; 32,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-40,03; -1,82</t>
+          <t>-40,73; 0,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,4; 72,35</t>
+          <t>19,89; 67,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 42,11</t>
+          <t>-3,63; 43,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 20,92</t>
+          <t>-21,13; 23,43</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-26,15; -9,1</t>
+          <t>-25,68; -9,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-19,51; -2,21</t>
+          <t>-20,66; -3,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 12,55</t>
+          <t>-4,21; 14,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-21,35; -1,49</t>
+          <t>-21,24; -1,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-25,72; -7,47</t>
+          <t>-26,95; -7,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 14,97</t>
+          <t>-1,66; 16,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-20,84; -8,08</t>
+          <t>-20,78; -7,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-20,54; -8,08</t>
+          <t>-20,53; -8,03</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 12,81</t>
+          <t>-0,17; 12,43</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-67,94; -31,51</t>
+          <t>-67,28; -31,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-52,79; -9,32</t>
+          <t>-53,88; -11,4</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 43,68</t>
+          <t>-10,82; 50,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-44,64; -4,08</t>
+          <t>-42,55; -4,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-52,06; -17,99</t>
+          <t>-53,43; -19,4</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 39,31</t>
+          <t>-3,22; 43,61</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-48,52; -21,71</t>
+          <t>-48,87; -21,46</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-48,03; -22,38</t>
+          <t>-48,98; -22,72</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 36,17</t>
+          <t>-0,46; 35,97</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 8,32</t>
+          <t>-3,42; 8,04</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 5,74</t>
+          <t>-5,14; 5,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 9,73</t>
+          <t>-0,78; 9,82</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-16,98; -2,93</t>
+          <t>-17,15; -3,37</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-16,39; -2,08</t>
+          <t>-17,17; -2,27</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-18,1; -5,49</t>
+          <t>-17,55; -5,84</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 0,82</t>
+          <t>-8,3; 0,74</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 0,36</t>
+          <t>-9,26; 0,22</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 0,34</t>
+          <t>-8,08; 0,03</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 84,05</t>
+          <t>-23,07; 88,8</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-37,03; 57,85</t>
+          <t>-34,05; 57,03</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 99,28</t>
+          <t>-6,0; 106,69</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-54,01; -11,74</t>
+          <t>-54,46; -13,29</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-52,71; -9,43</t>
+          <t>-53,18; -9,1</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-56,28; -22,54</t>
+          <t>-56,55; -25,0</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-38,21; 4,44</t>
+          <t>-37,64; 3,44</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-42,07; 2,03</t>
+          <t>-40,79; 1,97</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-35,36; 2,31</t>
+          <t>-35,77; 0,14</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>5,7; 14,25</t>
+          <t>5,33; 13,98</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,44; 10,32</t>
+          <t>2,87; 10,35</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,83; 14,34</t>
+          <t>5,76; 14,84</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 7,84</t>
+          <t>-1,87; 7,66</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 6,13</t>
+          <t>-3,37; 5,96</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 5,67</t>
+          <t>-8,67; 6,07</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,29; 9,46</t>
+          <t>3,17; 9,88</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,41; 6,85</t>
+          <t>0,74; 7,06</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 8,47</t>
+          <t>-0,32; 9,04</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>45,62; 168,8</t>
+          <t>42,01; 157,11</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>20,58; 126,17</t>
+          <t>21,53; 118,79</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>47,45; 169,91</t>
+          <t>45,14; 172,75</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 38,9</t>
+          <t>-7,51; 38,38</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 30,13</t>
+          <t>-13,52; 29,12</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-40,13; 26,24</t>
+          <t>-35,31; 28,18</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>18,17; 61,39</t>
+          <t>17,73; 65,19</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>2,2; 44,47</t>
+          <t>3,77; 47,55</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 53,95</t>
+          <t>-1,1; 57,47</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-16,15; -7,51</t>
+          <t>-16,18; -7,6</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-25,88; -18,3</t>
+          <t>-26,15; -18,58</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-23,72; -15,65</t>
+          <t>-23,49; -15,16</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-18,43; -9,14</t>
+          <t>-18,56; -9,4</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-28,44; -19,92</t>
+          <t>-28,11; -19,83</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-23,49; -14,6</t>
+          <t>-23,78; -14,7</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-15,88; -9,7</t>
+          <t>-16,19; -9,72</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-25,88; -19,74</t>
+          <t>-25,61; -20,0</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-22,49; -16,07</t>
+          <t>-22,7; -16,5</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-51,12; -27,34</t>
+          <t>-51,36; -27,8</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-81,35; -67,31</t>
+          <t>-81,38; -67,73</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-73,61; -56,97</t>
+          <t>-74,3; -56,87</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-46,01; -25,33</t>
+          <t>-46,44; -25,78</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-70,66; -56,41</t>
+          <t>-71,06; -55,77</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-58,81; -42,11</t>
+          <t>-58,94; -41,8</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-45,18; -30,28</t>
+          <t>-45,78; -30,45</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-73,21; -62,71</t>
+          <t>-73,14; -62,9</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-63,78; -50,61</t>
+          <t>-63,69; -51,27</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-4,21; -0,33</t>
+          <t>-4,08; -0,29</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-5,7; -1,92</t>
+          <t>-5,49; -2,1</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-4,86; -0,79</t>
+          <t>-4,64; -0,7</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-6,55; -2,07</t>
+          <t>-6,3; -1,83</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-9,56; -5,39</t>
+          <t>-9,5; -5,23</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-10,08; -5,29</t>
+          <t>-9,97; -5,2</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-4,65; -1,78</t>
+          <t>-4,82; -1,8</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-7,14; -4,22</t>
+          <t>-7,12; -4,09</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-6,32; -3,32</t>
+          <t>-6,38; -3,39</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-20,24; -1,62</t>
+          <t>-20,14; -1,63</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-28,22; -10,49</t>
+          <t>-27,15; -11,27</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-23,54; -4,34</t>
+          <t>-23,01; -3,85</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-21,27; -7,16</t>
+          <t>-20,44; -6,43</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-30,75; -18,73</t>
+          <t>-31,14; -18,4</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-33,14; -18,5</t>
+          <t>-32,27; -18,09</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-18,26; -7,35</t>
+          <t>-18,88; -7,51</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-27,85; -17,32</t>
+          <t>-27,94; -17,02</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-25,15; -14,03</t>
+          <t>-25,18; -14,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_2_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,46</t>
+          <t>13,74</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,21</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>8,1</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 14,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 11,51</t>
+          <t>-4,29; 9,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,0; 19,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 20,71</t>
+          <t>6,32; 20,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,46; 14,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,72; 14,76</t>
+          <t>3,13; 13,22</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>69,6%</t>
+          <t>66,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>46,94%</t>
+          <t>39,65%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 85,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 68,1</t>
+          <t>-18,23; 57,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,97; 113,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,49; 126,07</t>
+          <t>25,88; 121,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,34; 80,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,23; 84,18</t>
+          <t>12,54; 75,73</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-12,43</t>
+          <t>-12,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,01</t>
+          <t>-15,08</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-13,65</t>
+          <t>-13,95</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,31; -7,42</t>
+          <t>-17,59; -7,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,8; -9,56</t>
+          <t>-19,85; -9,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,27; -10,26</t>
+          <t>-17,58; -10,59</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-53,02%</t>
+          <t>-54,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-44,74%</t>
+          <t>-44,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-47,81%</t>
+          <t>-48,87%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,55; -35,39</t>
+          <t>-67,45; -36,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,34; -31,48</t>
+          <t>-54,45; -31,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-56,31; -38,75</t>
+          <t>-57,26; -39,69</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,67</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,34</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 10,27</t>
+          <t>-0,24; 9,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 1,62</t>
+          <t>-9,64; 1,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 4,15</t>
+          <t>-3,19; 3,88</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>45,03%</t>
+          <t>41,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-17,58%</t>
+          <t>-18,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 117,25</t>
+          <t>-4,0; 111,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,16; 11,09</t>
+          <t>-38,85; 9,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 29,45</t>
+          <t>-17,62; 27,72</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,72</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,19</t>
+          <t>12,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>-9,81</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,88</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-2,79</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,75; 13,38</t>
+          <t>-0,47; 10,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 11,5</t>
+          <t>-1,39; 11,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,37; 14,95</t>
+          <t>5,47; 18,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 0,07</t>
+          <t>-18,2; -3,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,62; 12,45</t>
+          <t>4,5; 13,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 4,0</t>
+          <t>-8,04; 2,11</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>63,82%</t>
+          <t>36,69%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>34,57%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>34,1%</t>
+          <t>44,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-23,0%</t>
+          <t>-36,38%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>43,48%</t>
+          <t>42,26%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-3,08%</t>
+          <t>-13,64%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>20,02; 119,43</t>
+          <t>-3,04; 98,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 101,39</t>
+          <t>-9,64; 100,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,99; 65,5</t>
+          <t>17,8; 79,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-40,73; 0,27</t>
+          <t>-61,66; -14,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,89; 67,9</t>
+          <t>20,18; 73,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 23,43</t>
+          <t>-36,97; 10,88</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>6,15</t>
+          <t>6,42</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 14,14</t>
+          <t>-3,86; 14,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 16,53</t>
+          <t>-1,34; 16,73</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 12,43</t>
+          <t>0,03; 12,65</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>16,42%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 50,08</t>
+          <t>-10,07; 50,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 43,61</t>
+          <t>-2,55; 43,81</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 35,97</t>
+          <t>0,07; 36,51</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-11,88</t>
+          <t>-11,94</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-3,98</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 9,82</t>
+          <t>-1,06; 9,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-17,55; -5,84</t>
+          <t>-17,68; -5,9</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 0,03</t>
+          <t>-8,25; -0,09</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>35,83%</t>
+          <t>33,56%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-42,87%</t>
+          <t>-43,06%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-18,92%</t>
+          <t>-19,71%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 106,69</t>
+          <t>-7,81; 103,51</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-56,55; -25,0</t>
+          <t>-56,76; -25,29</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-35,77; 0,14</t>
+          <t>-36,41; -0,51</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>9,94</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>3,3</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,76; 14,84</t>
+          <t>5,25; 14,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 6,07</t>
+          <t>-13,84; 5,29</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 9,04</t>
+          <t>-4,98; 7,78</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>96,95%</t>
+          <t>92,26%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>-11,77%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>30,55%</t>
+          <t>19,76%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>45,14; 172,75</t>
+          <t>42,57; 169,95</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-35,31; 28,18</t>
+          <t>-55,86; 24,8</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 57,47</t>
+          <t>-26,68; 49,51</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-19,34</t>
+          <t>-21,47</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-19,22</t>
+          <t>-19,15</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-19,37</t>
+          <t>-21,08</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-23,49; -15,16</t>
+          <t>-28,83; -17,29</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-23,78; -14,7</t>
+          <t>-23,89; -14,82</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-22,7; -16,5</t>
+          <t>-27,22; -17,52</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-65,85%</t>
+          <t>-73,08%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-51,32%</t>
+          <t>-51,13%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-57,78%</t>
+          <t>-62,89%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-74,3; -56,87</t>
+          <t>-88,94; -61,23</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-58,94; -41,8</t>
+          <t>-58,62; -41,88</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-63,69; -51,27</t>
+          <t>-77,28; -53,96</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-7,13</t>
+          <t>-8,16</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-5,95</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-4,64; -0,7</t>
+          <t>-7,25; -1,56</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -5,2</t>
+          <t>-12,08; -5,79</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-6,38; -3,39</t>
+          <t>-8,51; -4,05</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-13,92%</t>
+          <t>-19,23%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-24,04%</t>
+          <t>-27,5%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-19,6%</t>
+          <t>-24,13%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-23,01; -3,85</t>
+          <t>-36,69; -8,94</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-32,27; -18,09</t>
+          <t>-40,79; -20,23</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-25,18; -14,17</t>
+          <t>-33,6; -16,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_2_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 14,61</t>
+          <t>-0,12; 14,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 15,19</t>
+          <t>0,44; 15,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 9,53</t>
+          <t>-4,04; 9,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 19,14</t>
+          <t>3,45; 18,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 24,6</t>
+          <t>9,65; 25,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,32; 20,11</t>
+          <t>6,8; 20,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 14,45</t>
+          <t>3,79; 14,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,27; 17,68</t>
+          <t>7,36; 18,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 13,22</t>
+          <t>3,02; 12,99</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 85,93</t>
+          <t>-0,72; 86,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 92,43</t>
+          <t>2,05; 96,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,23; 57,28</t>
+          <t>-17,6; 57,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,97; 113,49</t>
+          <t>13,69; 111,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,26; 144,7</t>
+          <t>38,67; 149,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,88; 121,53</t>
+          <t>26,62; 129,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,34; 80,77</t>
+          <t>16,56; 82,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,3; 100,64</t>
+          <t>31,52; 105,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,54; 75,73</t>
+          <t>12,93; 74,17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,54; -8,97</t>
+          <t>-18,28; -8,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,69; -5,82</t>
+          <t>-15,62; -5,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,59; -7,67</t>
+          <t>-17,36; -7,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,47; -9,34</t>
+          <t>-21,2; -9,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,9; -8,95</t>
+          <t>-19,75; -8,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,85; -9,6</t>
+          <t>-19,66; -10,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,17; -10,72</t>
+          <t>-18,75; -11,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,33; -8,62</t>
+          <t>-16,48; -9,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,58; -10,59</t>
+          <t>-17,29; -10,14</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-70,77; -42,86</t>
+          <t>-70,24; -40,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,96; -28,03</t>
+          <t>-59,04; -25,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,45; -36,22</t>
+          <t>-67,02; -36,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,82; -31,09</t>
+          <t>-58,06; -32,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,62; -28,34</t>
+          <t>-55,08; -28,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,45; -31,8</t>
+          <t>-54,36; -33,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-59,52; -40,27</t>
+          <t>-60,27; -41,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,28; -32,76</t>
+          <t>-54,21; -33,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-57,26; -39,69</t>
+          <t>-57,11; -38,78</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 9,64</t>
+          <t>-1,35; 8,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 14,99</t>
+          <t>4,34; 15,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 9,85</t>
+          <t>-0,25; 10,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 5,49</t>
+          <t>-6,76; 5,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 10,13</t>
+          <t>-2,66; 9,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 1,45</t>
+          <t>-9,67; 1,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 5,75</t>
+          <t>-2,72; 5,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 10,67</t>
+          <t>2,1; 10,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 3,88</t>
+          <t>-3,27; 4,32</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 106,43</t>
+          <t>-10,56; 102,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,82; 171,25</t>
+          <t>28,02; 179,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 111,7</t>
+          <t>-3,61; 114,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,79; 31,75</t>
+          <t>-28,11; 33,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 56,09</t>
+          <t>-11,63; 54,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 9,03</t>
+          <t>-39,43; 9,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 39,63</t>
+          <t>-15,15; 38,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,28; 75,19</t>
+          <t>10,46; 75,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 27,72</t>
+          <t>-17,51; 30,74</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 10,65</t>
+          <t>-0,09; 10,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 12,26</t>
+          <t>0,91; 12,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 11,44</t>
+          <t>-1,3; 11,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,47; 18,79</t>
+          <t>5,65; 18,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 7,43</t>
+          <t>-6,32; 7,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,2; -3,2</t>
+          <t>-18,69; -2,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,5; 13,35</t>
+          <t>4,25; 12,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 7,87</t>
+          <t>-0,62; 7,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 2,11</t>
+          <t>-8,42; 2,12</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 98,23</t>
+          <t>-0,46; 96,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,64; 115,82</t>
+          <t>5,51; 105,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 100,75</t>
+          <t>-8,59; 100,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,8; 79,58</t>
+          <t>17,95; 80,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 32,53</t>
+          <t>-20,85; 30,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-61,66; -14,39</t>
+          <t>-63,22; -12,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,18; 73,15</t>
+          <t>18,51; 69,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 43,4</t>
+          <t>-2,68; 42,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,97; 10,88</t>
+          <t>-38,61; 11,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-25,68; -9,79</t>
+          <t>-27,15; -10,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-20,66; -3,42</t>
+          <t>-20,38; -3,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 14,37</t>
+          <t>-4,29; 13,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-21,24; -1,72</t>
+          <t>-21,32; -2,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-26,95; -7,9</t>
+          <t>-26,08; -8,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 16,73</t>
+          <t>-1,59; 15,73</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-20,78; -7,69</t>
+          <t>-21,29; -8,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-20,53; -8,03</t>
+          <t>-20,84; -8,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,03; 12,65</t>
+          <t>0,49; 12,91</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-67,28; -31,55</t>
+          <t>-68,38; -32,94</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-53,88; -11,4</t>
+          <t>-53,04; -10,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 50,86</t>
+          <t>-10,8; 44,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,55; -4,35</t>
+          <t>-43,07; -4,9</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-53,43; -19,4</t>
+          <t>-53,03; -20,54</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 43,81</t>
+          <t>-3,25; 41,12</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-48,87; -21,46</t>
+          <t>-50,27; -23,14</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-48,98; -22,72</t>
+          <t>-50,05; -22,72</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>0,07; 36,51</t>
+          <t>0,8; 35,87</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 8,04</t>
+          <t>-3,62; 8,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 5,41</t>
+          <t>-5,01; 6,04</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 9,39</t>
+          <t>-1,6; 9,34</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,15; -3,37</t>
+          <t>-16,98; -3,82</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,17; -2,27</t>
+          <t>-16,31; -2,21</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-17,68; -5,9</t>
+          <t>-18,64; -5,86</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 0,74</t>
+          <t>-8,75; 0,4</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 0,22</t>
+          <t>-9,25; -0,12</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,25; -0,09</t>
+          <t>-7,82; 0,43</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 88,8</t>
+          <t>-23,74; 82,81</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 57,03</t>
+          <t>-32,29; 69,06</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 103,51</t>
+          <t>-10,48; 101,63</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-54,46; -13,29</t>
+          <t>-55,53; -15,28</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-53,18; -9,1</t>
+          <t>-53,75; -9,42</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-56,76; -25,29</t>
+          <t>-56,44; -24,07</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-37,64; 3,44</t>
+          <t>-39,07; 2,95</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-40,79; 1,97</t>
+          <t>-41,82; -0,71</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-36,41; -0,51</t>
+          <t>-34,68; 2,61</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>5,33; 13,98</t>
+          <t>5,53; 14,18</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,87; 10,35</t>
+          <t>2,53; 10,18</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,25; 14,43</t>
+          <t>4,84; 13,65</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 7,66</t>
+          <t>-1,55; 8,22</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 5,96</t>
+          <t>-3,46; 5,9</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 5,29</t>
+          <t>-14,09; 5,28</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,17; 9,88</t>
+          <t>3,44; 9,65</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,74; 7,06</t>
+          <t>0,66; 7,13</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 7,78</t>
+          <t>-3,91; 7,67</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>42,01; 157,11</t>
+          <t>47,9; 169,84</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>21,53; 118,79</t>
+          <t>20,28; 116,94</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>42,57; 169,95</t>
+          <t>42,19; 157,97</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 38,38</t>
+          <t>-6,54; 40,3</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 29,12</t>
+          <t>-12,86; 28,7</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-55,86; 24,8</t>
+          <t>-56,34; 24,15</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>17,73; 65,19</t>
+          <t>18,32; 63,31</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>3,77; 47,55</t>
+          <t>3,47; 47,64</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-26,68; 49,51</t>
+          <t>-22,22; 48,07</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-16,18; -7,6</t>
+          <t>-16,07; -7,63</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-26,15; -18,58</t>
+          <t>-25,62; -18,41</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-28,83; -17,29</t>
+          <t>-27,14; -16,99</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-18,56; -9,4</t>
+          <t>-18,47; -8,9</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-28,11; -19,83</t>
+          <t>-27,98; -19,22</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-23,89; -14,82</t>
+          <t>-23,62; -14,79</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-16,19; -9,72</t>
+          <t>-15,88; -9,56</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-25,61; -20,0</t>
+          <t>-26,04; -20,17</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-27,22; -17,52</t>
+          <t>-26,81; -17,75</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-51,36; -27,8</t>
+          <t>-51,03; -27,67</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-81,38; -67,73</t>
+          <t>-81,34; -67,83</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-88,94; -61,23</t>
+          <t>-88,36; -60,38</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-46,44; -25,78</t>
+          <t>-46,24; -25,33</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-71,06; -55,77</t>
+          <t>-70,19; -54,78</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-58,62; -41,88</t>
+          <t>-58,85; -42,57</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-45,78; -30,45</t>
+          <t>-45,1; -29,85</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-73,14; -62,9</t>
+          <t>-73,75; -63,07</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-77,28; -53,96</t>
+          <t>-77,95; -54,52</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-4,08; -0,29</t>
+          <t>-4,22; -0,38</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-5,49; -2,1</t>
+          <t>-5,66; -1,84</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-7,25; -1,56</t>
+          <t>-7,47; -1,68</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-6,3; -1,83</t>
+          <t>-6,37; -2,09</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-9,5; -5,23</t>
+          <t>-9,6; -5,27</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-12,08; -5,79</t>
+          <t>-12,64; -5,64</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-4,82; -1,8</t>
+          <t>-4,64; -1,68</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-7,12; -4,09</t>
+          <t>-6,96; -4,05</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-8,51; -4,05</t>
+          <t>-8,51; -4,11</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-20,14; -1,63</t>
+          <t>-20,43; -2,06</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-27,15; -11,27</t>
+          <t>-27,63; -9,85</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-36,69; -8,94</t>
+          <t>-36,83; -8,84</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-20,44; -6,43</t>
+          <t>-20,78; -7,32</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-31,14; -18,4</t>
+          <t>-31,2; -18,31</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-40,79; -20,23</t>
+          <t>-42,08; -19,56</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-18,88; -7,51</t>
+          <t>-18,15; -6,93</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-27,94; -17,02</t>
+          <t>-27,67; -16,88</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-33,6; -16,91</t>
+          <t>-33,82; -17,27</t>
         </is>
       </c>
     </row>
